--- a/biology/Médecine/Jérôme_Dizé/Jérôme_Dizé.xlsx
+++ b/biology/Médecine/Jérôme_Dizé/Jérôme_Dizé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Diz%C3%A9</t>
+          <t>Jérôme_Dizé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jérôme Dizé, né le 29 septembre 1764 à Aire-sur-l'Adour (Landes) et mort le 21 août 1852 à Paris, est un chimiste et professeur français. Il s'est rendu célèbre pour le premier procédé de fabrication industrielle du carbonate de soude.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Diz%C3%A9</t>
+          <t>Jérôme_Dizé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Jean Jérôme Dizé est le fils de Michel Dizé, apothicaire, et de Marie Despaignet. Son aïeul Gilles Dizé était né à Saint-Étienne, diocèse de Rennes, et jardinier de l'évêque d'Aire-sur-l'Adour.
-Jérôme Dizé se forma auprès de ses éminents compatriotes, Jean d'Arcet, professeur de chimie au Collège royal. Dans ce laboratoire, il réalisa une découverte importante permettant l’obtention industrielle du carbonate de soude à partir du sel marin, procédé auquel le seul nom de Nicolas Leblanc, le chirurgien qui avait initié les recherches, est resté attaché[1].
+Jérôme Dizé se forma auprès de ses éminents compatriotes, Jean d'Arcet, professeur de chimie au Collège royal. Dans ce laboratoire, il réalisa une découverte importante permettant l’obtention industrielle du carbonate de soude à partir du sel marin, procédé auquel le seul nom de Nicolas Leblanc, le chirurgien qui avait initié les recherches, est resté attaché.
 Dizé embrassa alors la carrière des armes en se faisant admettre en 1792 comme élève en pharmacie à l’hôpital ambulant du Camp-sous-Paris.
 Reçu maître en pharmacie à Paris en 1795, il devint le premier pharmacien en chef du « Magasin général des pharmacies » (actuelle Pharmacie centrale des armées), créé par la Convention « pour assurer aux armées des médicaments de premier choix ».
 Par ses compétences et ses qualités d’administrateur, Dizé fera de cette pharmacie centrale un établissement de premier plan.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Diz%C3%A9</t>
+          <t>Jérôme_Dizé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chevalier de la Légion d'honneur.
 Membre de l'Académie de médecine et d'autres sociétés savantes.</t>
